--- a/FirstProject/docs/Measurements.xlsx
+++ b/FirstProject/docs/Measurements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\FEUP\A3S1\RCOM\feuprcom\FirstProject\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB6B03B-E27A-477F-9EA1-C6FD37CC2F80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED0F826-BC09-4957-82F4-3C47DF3F50A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91A20190-B5DC-4874-9F32-A695E65E5E43}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91A20190-B5DC-4874-9F32-A695E65E5E43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>File Size</t>
   </si>
   <si>
     <t>BAUDRATE</t>
-  </si>
-  <si>
-    <t>FRAME SIZE</t>
   </si>
   <si>
     <t>pinguim.gif</t>
@@ -54,13 +51,37 @@
     <t>BITS</t>
   </si>
   <si>
-    <t>TIME ELAPSED (s)</t>
+    <t>time(s</t>
   </si>
   <si>
-    <t>SPEED (BITS/s)</t>
+    <t>PACKETS</t>
   </si>
   <si>
-    <t>REAL EFFICIENCY</t>
+    <t>R(Bits/s)</t>
+  </si>
+  <si>
+    <t>Tprop</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>1/v</t>
+  </si>
+  <si>
+    <t>PACKET SIZE</t>
+  </si>
+  <si>
+    <t>ERRO NO CABEÇALHO</t>
+  </si>
+  <si>
+    <t>ERRO NOS DADOS</t>
+  </si>
+  <si>
+    <t>FER</t>
+  </si>
+  <si>
+    <t>S REAL (R/C)</t>
   </si>
 </sst>
 </file>
@@ -76,7 +97,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,19 +118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,16 +150,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,10 +181,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -223,92 +229,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$19</c:f>
+              <c:f>Sheet1!$L$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$19:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.33929528480711629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36217494773674835</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30689642262525041</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28643987669296078</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21473096723614229</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E48-4900-92EE-4AD89379B920}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4800</c:v>
+                  <c:v>S REAL (R/C)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -327,48 +252,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$F$18</c:f>
+              <c:f>Sheet1!$I$11:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1024</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2048</c:v>
+                  <c:v>19200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8192</c:v>
+                  <c:v>38400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$F$20</c:f>
+              <c:f>Sheet1!$L$11:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.33922939255669848</c:v>
+                  <c:v>0.77051916322208036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36215195127193983</c:v>
+                  <c:v>0.659064095023984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35634097854975461</c:v>
+                  <c:v>0.55872843216306844</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28643633090729492</c:v>
+                  <c:v>0.64098671039355259</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21472768817216931</c:v>
+                  <c:v>0.74520226493922437</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.249478214820814</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1980022493268662E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -376,250 +313,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E48-4900-92EE-4AD89379B920}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9600</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$21:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.33906478956837871</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36210022886794552</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35630930610516892</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32972428339982535</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21471906218982903</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4E48-4900-92EE-4AD89379B920}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19200</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$22:$F$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.33885285333380788</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36200112957026431</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35623195455197398</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3296732627770031</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21470458622150934</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4E48-4900-92EE-4AD89379B920}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>38400</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$B$18:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$23:$F$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.33826494509301175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36182543704079045</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35613035150143624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.32961738417951952</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.21468643097197049</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4E48-4900-92EE-4AD89379B920}"/>
+              <c16:uniqueId val="{00000000-75D8-413A-B4D3-4E839FF62E62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -632,11 +326,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="570986464"/>
-        <c:axId val="570989744"/>
+        <c:axId val="535502720"/>
+        <c:axId val="535500424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="570986464"/>
+        <c:axId val="535502720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -679,7 +373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570989744"/>
+        <c:crossAx val="535500424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -687,7 +381,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="570989744"/>
+        <c:axId val="535500424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -738,7 +432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570986464"/>
+        <c:crossAx val="535502720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -750,37 +444,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -826,42 +489,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1385,23 +1014,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351FBE6D-9FAA-4AC4-8AF1-F32DB24E2685}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BC2236-F256-47DE-BAC4-059E19C74722}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,60 +1348,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA456FE-DFA2-4068-BDF1-79F61347EDDF}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="H1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L17" sqref="I10:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+    <row r="1" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
         <v>0</v>
       </c>
       <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>128</v>
-      </c>
-      <c r="C2" s="4">
-        <v>512</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2048</v>
-      </c>
-      <c r="F2" s="4">
-        <v>8192</v>
-      </c>
+    <row r="2" spans="8:16" x14ac:dyDescent="0.3">
       <c r="H2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>10968</v>
@@ -1781,427 +1392,191 @@
         <f>I2*8</f>
         <v>87744</v>
       </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2">
+        <v>512</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="5">
+        <f>M1*M2</f>
+        <v>5.0000000000000001E-9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f>47*512*8</f>
+        <v>192512</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <f>1-((1-P3)*(1-P4))</f>
+        <v>5.9100000000000041E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I11" s="3">
         <v>2400</v>
       </c>
-      <c r="B3" s="1">
-        <v>107.75275000000001</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100.94569</v>
-      </c>
-      <c r="D3" s="1">
-        <v>119.12814</v>
-      </c>
-      <c r="E3" s="1">
-        <v>127.63585999999999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>170.25955999999999</v>
+      <c r="J11" s="1">
+        <v>104.10297</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K17" si="0">$J$4/J11</f>
+        <v>1849.2459917329929</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L17" si="1">K11/I11</f>
+        <v>0.77051916322208036</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="12" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I12" s="3">
         <v>4800</v>
       </c>
-      <c r="B4" s="1">
-        <v>53.886839999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>50.476050000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>51.29918</v>
-      </c>
-      <c r="E4" s="1">
-        <v>63.818719999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>85.131079999999997</v>
+      <c r="J12" s="1">
+        <v>60.853969999999997</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>3163.5076561151232</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.659064095023984</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="13" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I13" s="3">
         <v>9600</v>
       </c>
-      <c r="B5" s="1">
-        <v>26.956499999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>25.241630000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>25.651869999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>27.720130000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>42.567250000000001</v>
+      <c r="J13" s="1">
+        <v>35.891019999999997</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>5363.7929487654574</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55872843216306844</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="14" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I14" s="3">
         <v>19200</v>
       </c>
-      <c r="B6" s="1">
-        <v>13.48668</v>
-      </c>
-      <c r="C6" s="1">
-        <v>12.624269999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <v>12.828720000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>13.862209999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>21.285060000000001</v>
+      <c r="J14" s="1">
+        <v>15.64255</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>12306.94483955621</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.64098671039355259</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="15" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I15" s="3">
         <v>38400</v>
       </c>
-      <c r="B7" s="1">
-        <v>6.7550600000000003</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.3151999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6.4161900000000003</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6.9322800000000004</v>
-      </c>
-      <c r="F7" s="1">
-        <v>10.64343</v>
+      <c r="J15" s="1">
+        <v>6.7274799999999999</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>28615.766973666217</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.74520226493922437</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+    <row r="16" spans="8:16" x14ac:dyDescent="0.3">
+      <c r="I16" s="3">
+        <v>57600</v>
+      </c>
+      <c r="J16" s="1">
+        <v>13.396850000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>14369.945173678887</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="1"/>
+        <v>0.249478214820814</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>128</v>
-      </c>
-      <c r="C10" s="4">
-        <v>512</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2048</v>
-      </c>
-      <c r="F10" s="4">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>2400</v>
-      </c>
-      <c r="B11" s="1">
-        <f>$J$2/B3</f>
-        <v>814.30868353707911</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ref="C11:F11" si="0">$J$2/C3</f>
-        <v>869.21987456819602</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="17" spans="9:12" x14ac:dyDescent="0.3">
+      <c r="I17" s="3">
+        <v>115200</v>
+      </c>
+      <c r="J17" s="1">
+        <v>20.384370000000001</v>
+      </c>
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
-        <v>736.55141430060098</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>687.45570406310583</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>515.35432136674149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>4800</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" ref="B12:F12" si="1">$J$2/B4</f>
-        <v>1628.3010842721526</v>
-      </c>
-      <c r="C12" s="1">
+        <v>9444.0985912245505</v>
+      </c>
+      <c r="L17" s="1">
         <f t="shared" si="1"/>
-        <v>1738.3293661053112</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>1710.4366970388221</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>1374.8943883550155</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>1030.6929032264127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>9600</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:F13" si="2">$J$2/B5</f>
-        <v>3255.0219798564358</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="2"/>
-        <v>3476.162197132277</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>3420.5693386096218</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="2"/>
-        <v>3165.3531206383232</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>2061.3029970223588</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>19200</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" ref="B14:F14" si="3">$J$2/B6</f>
-        <v>6505.9747840091113</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="3"/>
-        <v>6950.4216877490744</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>6839.6535273979007</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="3"/>
-        <v>6329.7266453184593</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>4122.3280554529792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>38400</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" ref="B15:F15" si="4">$J$2/B7</f>
-        <v>12989.373891571651</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="4"/>
-        <v>13894.096782366354</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="4"/>
-        <v>13675.405497655151</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="4"/>
-        <v>12657.30755249355</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="4"/>
-        <v>8243.9589493236672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>128</v>
-      </c>
-      <c r="C18" s="4">
-        <v>512</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1024</v>
-      </c>
-      <c r="E18" s="4">
-        <v>2048</v>
-      </c>
-      <c r="F18" s="4">
-        <v>8192</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>2400</v>
-      </c>
-      <c r="B19" s="1">
-        <f>B11/$A$19</f>
-        <v>0.33929528480711629</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:F19" si="5">C11/$A$19</f>
-        <v>0.36217494773674835</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.30689642262525041</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.28643987669296078</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="5"/>
-        <v>0.21473096723614229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>4800</v>
-      </c>
-      <c r="B20" s="1">
-        <f>B12/$A$20</f>
-        <v>0.33922939255669848</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" ref="C20:F20" si="6">C12/$A$20</f>
-        <v>0.36215195127193983</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.35634097854975461</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.28643633090729492</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="6"/>
-        <v>0.21472768817216931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>9600</v>
-      </c>
-      <c r="B21" s="1">
-        <f>B13/$A$21</f>
-        <v>0.33906478956837871</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" ref="C21:F21" si="7">C13/$A$21</f>
-        <v>0.36210022886794552</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.35630930610516892</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.32972428339982535</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.21471906218982903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>19200</v>
-      </c>
-      <c r="B22" s="1">
-        <f>B14/$A$22</f>
-        <v>0.33885285333380788</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ref="C22:F22" si="8">C14/$A$22</f>
-        <v>0.36200112957026431</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="8"/>
-        <v>0.35623195455197398</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="8"/>
-        <v>0.3296732627770031</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="8"/>
-        <v>0.21470458622150934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>38400</v>
-      </c>
-      <c r="B23" s="1">
-        <f>B15/$A$23</f>
-        <v>0.33826494509301175</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:F23" si="9">C15/$A$23</f>
-        <v>0.36182543704079045</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="9"/>
-        <v>0.35613035150143624</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="9"/>
-        <v>0.32961738417951952</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="9"/>
-        <v>0.21468643097197049</v>
+        <v>8.1980022493268662E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B17:F17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
